--- a/src/test/resources/xlsx/output/out_basicXlsxTemplateResult.xlsx
+++ b/src/test/resources/xlsx/output/out_basicXlsxTemplateResult.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowHeight="8016" windowWidth="14808" xWindow="240" yWindow="108"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet World ABC" r:id="rId5" sheetId="1"/>
+    <sheet name="Sheet World ABC" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -484,12 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -559,5 +561,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/xlsx/output/out_basicXlsxTemplateResult.xlsx
+++ b/src/test/resources/xlsx/output/out_basicXlsxTemplateResult.xlsx
@@ -499,7 +499,6 @@
           <t>Jebt supports single properties.</t>
         </is>
       </c>
-      <c r="B1"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -507,7 +506,6 @@
           <t>Hello World!</t>
         </is>
       </c>
-      <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -515,7 +513,6 @@
           <t>Even with Text formatting: Some bold World! But only the cell font will be preserved. Any text-section specific formatting will be discarded.</t>
         </is>
       </c>
-      <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -523,7 +520,6 @@
           <t>Sbet supports property chain, indexed properties, and mapped properties.</t>
         </is>
       </c>
-      <c r="B4"/>
     </row>
     <row r="5">
       <c r="A5"/>
@@ -532,7 +528,6 @@
           <t>The postal code of the third customer is 200093.</t>
         </is>
       </c>
-      <c r="C5"/>
     </row>
     <row r="6">
 </row>
@@ -542,7 +537,6 @@
           <t>Empty lines are not a problem.</t>
         </is>
       </c>
-      <c r="B7"/>
     </row>
     <row r="8">
 </row>
@@ -557,7 +551,6 @@
           <t>World folks, Let Jebt take on the World</t>
         </is>
       </c>
-      <c r="G9"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
